--- a/biology/Botanique/Begonia_nelumbiifolia/Begonia_nelumbiifolia.xlsx
+++ b/biology/Botanique/Begonia_nelumbiifolia/Begonia_nelumbiifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia nelumbiifolia est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique centrale et de Colombie. L'espèce fait partie de la section Gireoudia. Elle a été décrite en 1830 par Adelbert von Chamisso (1781-1838) et Diederich Franz Leonhard von Schlechtendal (1794-1866). L'épithète spécifique nelumbiifolia signifie « à feuille de lotus (Nelumbo) »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia nelumbiifolia est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique centrale et de Colombie. L'espèce fait partie de la section Gireoudia. Elle a été décrite en 1830 par Adelbert von Chamisso (1781-1838) et Diederich Franz Leonhard von Schlechtendal (1794-1866). L'épithète spécifique nelumbiifolia signifie « à feuille de lotus (Nelumbo) ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Floraison, spécimen cultivé en Inde
@@ -543,10 +557,12 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Mexique[3] au Chiapas, à Mexico, en Hidalgo, dans l'Etat de Mexico, dans le Morelos, dans le Oaxaca, dans l'Etat de Puebla, au San Luis Potosí, dans le Tabasco et au Veracruz[4] ; en Amérique Centrale au Belize, au Costa Rica, au Salvador et au Guatemala ; et en Amérique du Sud en Colombie[5].
-L'espèce est associée aux forêts tropicales humides sempervirentes à des altitudes comprises entre 100 et 1700 m[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Mexique au Chiapas, à Mexico, en Hidalgo, dans l'Etat de Mexico, dans le Morelos, dans le Oaxaca, dans l'Etat de Puebla, au San Luis Potosí, dans le Tabasco et au Veracruz ; en Amérique Centrale au Belize, au Costa Rica, au Salvador et au Guatemala ; et en Amérique du Sud en Colombie.
+L'espèce est associée aux forêts tropicales humides sempervirentes à des altitudes comprises entre 100 et 1700 m.
 </t>
         </is>
       </c>
